--- a/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST_since_2021/AR2_50_9_matched_errors_T45_since_2021.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST_since_2021/AR2_50_9_matched_errors_T45_since_2021.xlsx
@@ -501,34 +501,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.9850301776737167</v>
+        <v>0.8032788223262832</v>
       </c>
       <c r="C2">
-        <v>2.175752524391212</v>
+        <v>-1.002366475608788</v>
       </c>
       <c r="D2">
-        <v>-1.169228645652444</v>
+        <v>-1.464557645652444</v>
       </c>
       <c r="E2">
-        <v>-1.605646058573539</v>
+        <v>0.9087989414264609</v>
       </c>
       <c r="F2">
-        <v>0.9646269304998711</v>
+        <v>0.03490493049987109</v>
       </c>
       <c r="G2">
-        <v>0.04013991644653381</v>
+        <v>0.2751479164465338</v>
       </c>
       <c r="H2">
-        <v>0.2665276098352697</v>
+        <v>-0.04060839016473031</v>
       </c>
       <c r="I2">
-        <v>-0.0392331488638116</v>
+        <v>0.4714428511361884</v>
       </c>
       <c r="J2">
-        <v>0.4722505897783218</v>
+        <v>0.1848835897783218</v>
       </c>
       <c r="K2">
-        <v>0.1845085656625323</v>
+        <v>0.2125075656625323</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -536,34 +536,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>2.583984978012982</v>
+        <v>-0.5941340219870179</v>
       </c>
       <c r="C3">
-        <v>-0.9176056017660498</v>
+        <v>-1.21293460176605</v>
       </c>
       <c r="D3">
-        <v>-1.687552112396674</v>
+        <v>0.8268928876033257</v>
       </c>
       <c r="E3">
-        <v>1.039718979881157</v>
+        <v>0.1099969798811567</v>
       </c>
       <c r="F3">
-        <v>0.1460470769602576</v>
+        <v>0.3810550769602576</v>
       </c>
       <c r="G3">
-        <v>0.3249442559939251</v>
+        <v>0.0178082559939251</v>
       </c>
       <c r="H3">
-        <v>0.02720553496627992</v>
+        <v>0.5378815349662799</v>
       </c>
       <c r="I3">
-        <v>0.5469325483891583</v>
+        <v>0.2595655483891583</v>
       </c>
       <c r="J3">
-        <v>0.2548218575635111</v>
+        <v>0.2828208575635111</v>
       </c>
       <c r="K3">
-        <v>0.2823415042266514</v>
+        <v>0.3749895042266514</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -571,34 +571,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-1.023104813614865</v>
+        <v>-1.318433813614865</v>
       </c>
       <c r="C4">
-        <v>-1.813657396362032</v>
+        <v>0.7007876036379678</v>
       </c>
       <c r="D4">
-        <v>1.207967048514389</v>
+        <v>0.2782450485143884</v>
       </c>
       <c r="E4">
-        <v>0.2067111695641399</v>
+        <v>0.4417191695641399</v>
       </c>
       <c r="F4">
-        <v>0.336077095368558</v>
+        <v>0.02894109536855799</v>
       </c>
       <c r="G4">
-        <v>0.09006828629321051</v>
+        <v>0.6007442862932105</v>
       </c>
       <c r="H4">
-        <v>0.6042840761829015</v>
+        <v>0.3169170761829015</v>
       </c>
       <c r="I4">
-        <v>0.2993270345678901</v>
+        <v>0.3273260345678901</v>
       </c>
       <c r="J4">
-        <v>0.33341537525307</v>
+        <v>0.42606337525307</v>
       </c>
       <c r="K4">
-        <v>0.4282859431822899</v>
+        <v>0.6412619431822899</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -606,34 +606,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>-2.418098016209771</v>
+        <v>0.0963469837902291</v>
       </c>
       <c r="C5">
-        <v>1.143763671159695</v>
+        <v>0.214041671159695</v>
       </c>
       <c r="D5">
-        <v>0.4982584776213567</v>
+        <v>0.7332664776213567</v>
       </c>
       <c r="E5">
-        <v>0.2983702192826244</v>
+        <v>-0.008765780717375604</v>
       </c>
       <c r="F5">
-        <v>0.08148426621974941</v>
+        <v>0.5921602662197494</v>
       </c>
       <c r="G5">
-        <v>0.6880251537802698</v>
+        <v>0.4006581537802698</v>
       </c>
       <c r="H5">
-        <v>0.3341541794959351</v>
+        <v>0.3621531794959351</v>
       </c>
       <c r="I5">
-        <v>0.359979758305367</v>
+        <v>0.452627758305367</v>
       </c>
       <c r="J5">
-        <v>0.4737847839288888</v>
+        <v>0.6867607839288887</v>
       </c>
       <c r="K5">
-        <v>0.6788178843816368</v>
+        <v>0.1781578843816368</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -641,34 +641,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>1.056122842320784</v>
+        <v>0.1264008423207837</v>
       </c>
       <c r="C6">
-        <v>0.4458392755916881</v>
+        <v>0.6808472755916881</v>
       </c>
       <c r="D6">
-        <v>0.35701661626763</v>
+        <v>0.04988061626763002</v>
       </c>
       <c r="E6">
-        <v>0.08641341155685073</v>
+        <v>0.5970894115568507</v>
       </c>
       <c r="F6">
-        <v>0.6769318707313746</v>
+        <v>0.3895648707313746</v>
       </c>
       <c r="G6">
-        <v>0.3469208787210216</v>
+        <v>0.3749198787210216</v>
       </c>
       <c r="H6">
-        <v>0.3687093173527261</v>
+        <v>0.4613573173527261</v>
       </c>
       <c r="I6">
-        <v>0.4762867280777406</v>
+        <v>0.6892627280777406</v>
       </c>
       <c r="J6">
-        <v>0.6850938218533179</v>
+        <v>0.1844338218533179</v>
       </c>
       <c r="K6">
-        <v>0.1817482544735015</v>
+        <v>0.4715052544735016</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -676,34 +676,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.4682672552246967</v>
+        <v>0.7032752552246967</v>
       </c>
       <c r="C7">
-        <v>0.3596201558300787</v>
+        <v>0.0524841558300787</v>
       </c>
       <c r="D7">
-        <v>0.06434572590283549</v>
+        <v>0.5750217259028355</v>
       </c>
       <c r="E7">
-        <v>0.6709498904270196</v>
+        <v>0.3835828904270196</v>
       </c>
       <c r="F7">
-        <v>0.3415776285386105</v>
+        <v>0.3695766285386105</v>
       </c>
       <c r="G7">
-        <v>0.3583407839823598</v>
+        <v>0.4509887839823598</v>
       </c>
       <c r="H7">
-        <v>0.4678094059541168</v>
+        <v>0.6807854059541167</v>
       </c>
       <c r="I7">
-        <v>0.6773215135465072</v>
+        <v>0.1766615135465071</v>
       </c>
       <c r="J7">
-        <v>0.1731242809405329</v>
+        <v>0.4628812809405329</v>
       </c>
       <c r="K7">
-        <v>0.4653169537672726</v>
+        <v>0.2074249537672726</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -711,34 +711,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.3810447272872988</v>
+        <v>0.0739087272872988</v>
       </c>
       <c r="C8">
-        <v>0.1845235747020479</v>
+        <v>0.6951995747020479</v>
       </c>
       <c r="D8">
-        <v>0.5817555460132365</v>
+        <v>0.2943885460132365</v>
       </c>
       <c r="E8">
-        <v>0.3118506246900327</v>
+        <v>0.3398496246900327</v>
       </c>
       <c r="F8">
-        <v>0.3669669040122699</v>
+        <v>0.4596149040122699</v>
       </c>
       <c r="G8">
-        <v>0.4418692325286816</v>
+        <v>0.6548452325286815</v>
       </c>
       <c r="H8">
-        <v>0.6545429505182796</v>
+        <v>0.1538829505182796</v>
       </c>
       <c r="I8">
-        <v>0.1595062457919151</v>
+        <v>0.4492632457919151</v>
       </c>
       <c r="J8">
-        <v>0.4467961565820968</v>
+        <v>0.1889041565820968</v>
       </c>
       <c r="K8">
-        <v>0.1882892220727796</v>
+        <v>0.5706702220727796</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -746,34 +746,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.1422029423816584</v>
+        <v>0.6528789423816584</v>
       </c>
       <c r="C9">
-        <v>0.5525510721575033</v>
+        <v>0.2651840721575033</v>
       </c>
       <c r="D9">
-        <v>0.3088300248851115</v>
+        <v>0.3368290248851115</v>
       </c>
       <c r="E9">
-        <v>0.3481056204007895</v>
+        <v>0.4407536204007895</v>
       </c>
       <c r="F9">
-        <v>0.4215381014634773</v>
+        <v>0.6345141014634773</v>
       </c>
       <c r="G9">
-        <v>0.6400127950840317</v>
+        <v>0.1393527950840318</v>
       </c>
       <c r="H9">
-        <v>0.1428652002996471</v>
+        <v>0.4326222002996472</v>
       </c>
       <c r="I9">
-        <v>0.4292123111533466</v>
+        <v>0.1713203111533466</v>
       </c>
       <c r="J9">
-        <v>0.1718153385427368</v>
+        <v>0.5541963385427369</v>
       </c>
       <c r="K9">
-        <v>0.5550469433309027</v>
+        <v>0.1437698493309027</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -781,34 +781,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.8927488127754134</v>
+        <v>0.6053818127754134</v>
       </c>
       <c r="C10">
-        <v>0.3842010866690486</v>
+        <v>0.4122000866690486</v>
       </c>
       <c r="D10">
-        <v>0.1570123340877904</v>
+        <v>0.2496603340877904</v>
       </c>
       <c r="E10">
-        <v>0.4462320140502105</v>
+        <v>0.6592080140502106</v>
       </c>
       <c r="F10">
-        <v>0.6493921986403277</v>
+        <v>0.1487321986403278</v>
       </c>
       <c r="G10">
-        <v>0.08805440168825607</v>
+        <v>0.3778114016882561</v>
       </c>
       <c r="H10">
-        <v>0.4103182202646768</v>
+        <v>0.1524262202646768</v>
       </c>
       <c r="I10">
-        <v>0.1569513377276911</v>
+        <v>0.5393323377276911</v>
       </c>
       <c r="J10">
-        <v>0.526335232701532</v>
+        <v>0.115058138701532</v>
       </c>
       <c r="K10">
-        <v>0.1198157454308724</v>
+        <v>0.4067718394308724</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -816,34 +816,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.8348959586592991</v>
+        <v>0.8628949586592991</v>
       </c>
       <c r="C11">
-        <v>0.2041230363001488</v>
+        <v>0.2967710363001488</v>
       </c>
       <c r="D11">
-        <v>0.2059487832594023</v>
+        <v>0.4189247832594023</v>
       </c>
       <c r="E11">
-        <v>0.6853372797061905</v>
+        <v>0.1846772797061906</v>
       </c>
       <c r="F11">
-        <v>0.08600364424866319</v>
+        <v>0.3757606442486632</v>
       </c>
       <c r="G11">
-        <v>0.3337499808286466</v>
+        <v>0.07585798082864662</v>
       </c>
       <c r="H11">
-        <v>0.1295519433524077</v>
+        <v>0.5119329433524077</v>
       </c>
       <c r="I11">
-        <v>0.5000461825038066</v>
+        <v>0.08876908850380663</v>
       </c>
       <c r="J11">
-        <v>0.0764184547175398</v>
-      </c>
-      <c r="K11">
-        <v>0.3733815035592049</v>
+        <v>0.3633745487175398</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -851,31 +848,28 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.5164486232236872</v>
+        <v>0.6090966232236873</v>
       </c>
       <c r="C12">
-        <v>0.3392375229949266</v>
+        <v>0.5522135229949265</v>
       </c>
       <c r="D12">
-        <v>0.506258857889999</v>
+        <v>0.005598857889999004</v>
       </c>
       <c r="E12">
-        <v>0.1141978830192304</v>
+        <v>0.4039548830192304</v>
       </c>
       <c r="F12">
-        <v>0.3697752920210401</v>
+        <v>0.1118832920210401</v>
       </c>
       <c r="G12">
-        <v>0.09201037314819407</v>
+        <v>0.4743913731481941</v>
       </c>
       <c r="H12">
-        <v>0.4945038434164454</v>
+        <v>0.08322674941644539</v>
       </c>
       <c r="I12">
-        <v>0.08059378365628841</v>
-      </c>
-      <c r="J12">
-        <v>0.3621967898194339</v>
+        <v>0.3675498776562884</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -883,28 +877,25 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.5748280141027678</v>
+        <v>0.7878040141027678</v>
       </c>
       <c r="C13">
-        <v>0.5909375987643086</v>
+        <v>0.09027759876430858</v>
       </c>
       <c r="D13">
-        <v>-0.03140248361448672</v>
+        <v>0.2583545163855133</v>
       </c>
       <c r="E13">
-        <v>0.3797290348802828</v>
+        <v>0.1218370348802827</v>
       </c>
       <c r="F13">
-        <v>0.107375542847739</v>
+        <v>0.489756542847739</v>
       </c>
       <c r="G13">
-        <v>0.4556555084590223</v>
+        <v>0.04437841445902233</v>
       </c>
       <c r="H13">
-        <v>0.06474797462910251</v>
-      </c>
-      <c r="I13">
-        <v>0.3538625613519331</v>
+        <v>0.3517040686291025</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -912,25 +903,22 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.9019617852456914</v>
+        <v>0.4013017852456914</v>
       </c>
       <c r="C14">
-        <v>0.08568629079670848</v>
+        <v>0.3754432907967085</v>
       </c>
       <c r="D14">
-        <v>0.2172648934307159</v>
+        <v>-0.04062710656928412</v>
       </c>
       <c r="E14">
-        <v>0.1363344933129406</v>
+        <v>0.5187154933129405</v>
       </c>
       <c r="F14">
-        <v>0.4913983809139259</v>
+        <v>0.08012128691392592</v>
       </c>
       <c r="G14">
-        <v>0.03342032824547542</v>
-      </c>
-      <c r="H14">
-        <v>0.3506375116504074</v>
+        <v>0.3203764222454754</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -938,22 +926,19 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.3325114682008229</v>
+        <v>0.6222684682008229</v>
       </c>
       <c r="C15">
-        <v>0.2349207609686054</v>
+        <v>-0.02297123903139461</v>
       </c>
       <c r="D15">
-        <v>0.0417122542019461</v>
+        <v>0.4240932542019461</v>
       </c>
       <c r="E15">
-        <v>0.5236157691624059</v>
+        <v>0.112338675162406</v>
       </c>
       <c r="F15">
-        <v>0.0458084540731927</v>
-      </c>
-      <c r="G15">
-        <v>0.3297737081011285</v>
+        <v>0.3327645480731927</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,69 +946,54 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.4745971203848173</v>
+        <v>0.2167051203848173</v>
       </c>
       <c r="C16">
-        <v>0.1267364976711596</v>
+        <v>0.5091174976711597</v>
       </c>
       <c r="D16">
-        <v>0.4071311908043919</v>
+        <v>-0.004145903195608092</v>
       </c>
       <c r="E16">
-        <v>0.06091372572504519</v>
-      </c>
-      <c r="F16">
-        <v>0.3530127437271186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.3478698197250452</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.2915965747052469</v>
+        <v>0.6739775747052469</v>
       </c>
       <c r="C17">
-        <v>0.4206684630523081</v>
+        <v>0.009391369052308113</v>
       </c>
       <c r="D17">
-        <v>-0.002059193264917797</v>
-      </c>
-      <c r="E17">
-        <v>0.3630509094086165</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>0.2848969007350822</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0.6745175049177161</v>
+        <v>0.2632404109177161</v>
       </c>
       <c r="C18">
-        <v>0.09725885691711864</v>
-      </c>
-      <c r="D18">
-        <v>0.2514743671933744</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>0.3842149509171186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.1413185481565676</v>
-      </c>
-      <c r="C19">
-        <v>0.2728948720679752</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.4282746421565676</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B20">
-        <v>0.5091380033804217</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST_since_2021/AR2_50_9_matched_errors_T45_since_2021.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST_since_2021/AR2_50_9_matched_errors_T45_since_2021.xlsx
@@ -501,34 +501,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.8032788223262832</v>
+        <v>-0.9850301776737167</v>
       </c>
       <c r="C2">
-        <v>-1.002366475608788</v>
+        <v>2.175752524391212</v>
       </c>
       <c r="D2">
-        <v>-1.464557645652444</v>
+        <v>-1.169228645652444</v>
       </c>
       <c r="E2">
-        <v>0.9087989414264609</v>
+        <v>-1.605646058573539</v>
       </c>
       <c r="F2">
-        <v>0.03490493049987109</v>
+        <v>0.9646269304998711</v>
       </c>
       <c r="G2">
-        <v>0.2751479164465338</v>
+        <v>0.04013991644653381</v>
       </c>
       <c r="H2">
-        <v>-0.04060839016473031</v>
+        <v>0.2665276098352697</v>
       </c>
       <c r="I2">
-        <v>0.4714428511361884</v>
+        <v>-0.0392331488638116</v>
       </c>
       <c r="J2">
-        <v>0.1848835897783218</v>
+        <v>0.4722505897783218</v>
       </c>
       <c r="K2">
-        <v>0.2125075656625323</v>
+        <v>0.1845085656625323</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -536,34 +536,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>-0.5941340219870179</v>
+        <v>2.583984978012982</v>
       </c>
       <c r="C3">
-        <v>-1.21293460176605</v>
+        <v>-0.9176056017660498</v>
       </c>
       <c r="D3">
-        <v>0.8268928876033257</v>
+        <v>-1.687552112396674</v>
       </c>
       <c r="E3">
-        <v>0.1099969798811567</v>
+        <v>1.039718979881157</v>
       </c>
       <c r="F3">
-        <v>0.3810550769602576</v>
+        <v>0.1460470769602576</v>
       </c>
       <c r="G3">
-        <v>0.0178082559939251</v>
+        <v>0.3249442559939251</v>
       </c>
       <c r="H3">
-        <v>0.5378815349662799</v>
+        <v>0.02720553496627992</v>
       </c>
       <c r="I3">
-        <v>0.2595655483891583</v>
+        <v>0.5469325483891583</v>
       </c>
       <c r="J3">
-        <v>0.2828208575635111</v>
+        <v>0.2548218575635111</v>
       </c>
       <c r="K3">
-        <v>0.3749895042266514</v>
+        <v>0.2823415042266514</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -571,34 +571,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-1.318433813614865</v>
+        <v>-1.023104813614865</v>
       </c>
       <c r="C4">
-        <v>0.7007876036379678</v>
+        <v>-1.813657396362032</v>
       </c>
       <c r="D4">
-        <v>0.2782450485143884</v>
+        <v>1.207967048514389</v>
       </c>
       <c r="E4">
-        <v>0.4417191695641399</v>
+        <v>0.2067111695641399</v>
       </c>
       <c r="F4">
-        <v>0.02894109536855799</v>
+        <v>0.336077095368558</v>
       </c>
       <c r="G4">
-        <v>0.6007442862932105</v>
+        <v>0.09006828629321051</v>
       </c>
       <c r="H4">
-        <v>0.3169170761829015</v>
+        <v>0.6042840761829015</v>
       </c>
       <c r="I4">
-        <v>0.3273260345678901</v>
+        <v>0.2993270345678901</v>
       </c>
       <c r="J4">
-        <v>0.42606337525307</v>
+        <v>0.33341537525307</v>
       </c>
       <c r="K4">
-        <v>0.6412619431822899</v>
+        <v>0.4282859431822899</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -606,34 +606,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.0963469837902291</v>
+        <v>-2.418098016209771</v>
       </c>
       <c r="C5">
-        <v>0.214041671159695</v>
+        <v>1.143763671159695</v>
       </c>
       <c r="D5">
-        <v>0.7332664776213567</v>
+        <v>0.4982584776213567</v>
       </c>
       <c r="E5">
-        <v>-0.008765780717375604</v>
+        <v>0.2983702192826244</v>
       </c>
       <c r="F5">
-        <v>0.5921602662197494</v>
+        <v>0.08148426621974941</v>
       </c>
       <c r="G5">
-        <v>0.4006581537802698</v>
+        <v>0.6880251537802698</v>
       </c>
       <c r="H5">
-        <v>0.3621531794959351</v>
+        <v>0.3341541794959351</v>
       </c>
       <c r="I5">
-        <v>0.452627758305367</v>
+        <v>0.359979758305367</v>
       </c>
       <c r="J5">
-        <v>0.6867607839288887</v>
+        <v>0.4737847839288888</v>
       </c>
       <c r="K5">
-        <v>0.1781578843816368</v>
+        <v>0.6788178843816368</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -641,34 +641,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.1264008423207837</v>
+        <v>1.056122842320784</v>
       </c>
       <c r="C6">
-        <v>0.6808472755916881</v>
+        <v>0.4458392755916881</v>
       </c>
       <c r="D6">
-        <v>0.04988061626763002</v>
+        <v>0.35701661626763</v>
       </c>
       <c r="E6">
-        <v>0.5970894115568507</v>
+        <v>0.08641341155685073</v>
       </c>
       <c r="F6">
-        <v>0.3895648707313746</v>
+        <v>0.6769318707313746</v>
       </c>
       <c r="G6">
-        <v>0.3749198787210216</v>
+        <v>0.3469208787210216</v>
       </c>
       <c r="H6">
-        <v>0.4613573173527261</v>
+        <v>0.3687093173527261</v>
       </c>
       <c r="I6">
-        <v>0.6892627280777406</v>
+        <v>0.4762867280777406</v>
       </c>
       <c r="J6">
-        <v>0.1844338218533179</v>
+        <v>0.6850938218533179</v>
       </c>
       <c r="K6">
-        <v>0.4715052544735016</v>
+        <v>0.1817482544735015</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -676,34 +676,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.7032752552246967</v>
+        <v>0.4682672552246967</v>
       </c>
       <c r="C7">
-        <v>0.0524841558300787</v>
+        <v>0.3596201558300787</v>
       </c>
       <c r="D7">
-        <v>0.5750217259028355</v>
+        <v>0.06434572590283549</v>
       </c>
       <c r="E7">
-        <v>0.3835828904270196</v>
+        <v>0.6709498904270196</v>
       </c>
       <c r="F7">
-        <v>0.3695766285386105</v>
+        <v>0.3415776285386105</v>
       </c>
       <c r="G7">
-        <v>0.4509887839823598</v>
+        <v>0.3583407839823598</v>
       </c>
       <c r="H7">
-        <v>0.6807854059541167</v>
+        <v>0.4678094059541168</v>
       </c>
       <c r="I7">
-        <v>0.1766615135465071</v>
+        <v>0.6773215135465072</v>
       </c>
       <c r="J7">
-        <v>0.4628812809405329</v>
+        <v>0.1731242809405329</v>
       </c>
       <c r="K7">
-        <v>0.2074249537672726</v>
+        <v>0.4653169537672726</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -711,34 +711,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.0739087272872988</v>
+        <v>0.3810447272872988</v>
       </c>
       <c r="C8">
-        <v>0.6951995747020479</v>
+        <v>0.1845235747020479</v>
       </c>
       <c r="D8">
-        <v>0.2943885460132365</v>
+        <v>0.5817555460132365</v>
       </c>
       <c r="E8">
-        <v>0.3398496246900327</v>
+        <v>0.3118506246900327</v>
       </c>
       <c r="F8">
-        <v>0.4596149040122699</v>
+        <v>0.3669669040122699</v>
       </c>
       <c r="G8">
-        <v>0.6548452325286815</v>
+        <v>0.4418692325286816</v>
       </c>
       <c r="H8">
-        <v>0.1538829505182796</v>
+        <v>0.6545429505182796</v>
       </c>
       <c r="I8">
-        <v>0.4492632457919151</v>
+        <v>0.1595062457919151</v>
       </c>
       <c r="J8">
-        <v>0.1889041565820968</v>
+        <v>0.4467961565820968</v>
       </c>
       <c r="K8">
-        <v>0.5706702220727796</v>
+        <v>0.1882892220727796</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -746,34 +746,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.6528789423816584</v>
+        <v>0.1422029423816584</v>
       </c>
       <c r="C9">
-        <v>0.2651840721575033</v>
+        <v>0.5525510721575033</v>
       </c>
       <c r="D9">
-        <v>0.3368290248851115</v>
+        <v>0.3088300248851115</v>
       </c>
       <c r="E9">
-        <v>0.4407536204007895</v>
+        <v>0.3481056204007895</v>
       </c>
       <c r="F9">
-        <v>0.6345141014634773</v>
+        <v>0.4215381014634773</v>
       </c>
       <c r="G9">
-        <v>0.1393527950840318</v>
+        <v>0.6400127950840317</v>
       </c>
       <c r="H9">
-        <v>0.4326222002996472</v>
+        <v>0.1428652002996471</v>
       </c>
       <c r="I9">
-        <v>0.1713203111533466</v>
+        <v>0.4292123111533466</v>
       </c>
       <c r="J9">
-        <v>0.5541963385427369</v>
+        <v>0.1718153385427368</v>
       </c>
       <c r="K9">
-        <v>0.1437698493309027</v>
+        <v>0.5550469433309027</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -781,34 +781,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.6053818127754134</v>
+        <v>0.8927488127754134</v>
       </c>
       <c r="C10">
-        <v>0.4122000866690486</v>
+        <v>0.3842010866690486</v>
       </c>
       <c r="D10">
-        <v>0.2496603340877904</v>
+        <v>0.1570123340877904</v>
       </c>
       <c r="E10">
-        <v>0.6592080140502106</v>
+        <v>0.4462320140502105</v>
       </c>
       <c r="F10">
-        <v>0.1487321986403278</v>
+        <v>0.6493921986403277</v>
       </c>
       <c r="G10">
-        <v>0.3778114016882561</v>
+        <v>0.08805440168825607</v>
       </c>
       <c r="H10">
-        <v>0.1524262202646768</v>
+        <v>0.4103182202646768</v>
       </c>
       <c r="I10">
-        <v>0.5393323377276911</v>
+        <v>0.1569513377276911</v>
       </c>
       <c r="J10">
-        <v>0.115058138701532</v>
+        <v>0.526335232701532</v>
       </c>
       <c r="K10">
-        <v>0.4067718394308724</v>
+        <v>0.1198157454308724</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -816,31 +816,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.8628949586592991</v>
+        <v>0.8348959586592991</v>
       </c>
       <c r="C11">
-        <v>0.2967710363001488</v>
+        <v>0.2041230363001488</v>
       </c>
       <c r="D11">
-        <v>0.4189247832594023</v>
+        <v>0.2059487832594023</v>
       </c>
       <c r="E11">
-        <v>0.1846772797061906</v>
+        <v>0.6853372797061905</v>
       </c>
       <c r="F11">
-        <v>0.3757606442486632</v>
+        <v>0.08600364424866319</v>
       </c>
       <c r="G11">
-        <v>0.07585798082864662</v>
+        <v>0.3337499808286466</v>
       </c>
       <c r="H11">
-        <v>0.5119329433524077</v>
+        <v>0.1295519433524077</v>
       </c>
       <c r="I11">
-        <v>0.08876908850380663</v>
+        <v>0.5000461825038066</v>
       </c>
       <c r="J11">
-        <v>0.3633745487175398</v>
+        <v>0.0764184547175398</v>
+      </c>
+      <c r="K11">
+        <v>0.3733815035592049</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -848,28 +851,31 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.6090966232236873</v>
+        <v>0.5164486232236872</v>
       </c>
       <c r="C12">
-        <v>0.5522135229949265</v>
+        <v>0.3392375229949266</v>
       </c>
       <c r="D12">
-        <v>0.005598857889999004</v>
+        <v>0.506258857889999</v>
       </c>
       <c r="E12">
-        <v>0.4039548830192304</v>
+        <v>0.1141978830192304</v>
       </c>
       <c r="F12">
-        <v>0.1118832920210401</v>
+        <v>0.3697752920210401</v>
       </c>
       <c r="G12">
-        <v>0.4743913731481941</v>
+        <v>0.09201037314819407</v>
       </c>
       <c r="H12">
-        <v>0.08322674941644539</v>
+        <v>0.4945038434164454</v>
       </c>
       <c r="I12">
-        <v>0.3675498776562884</v>
+        <v>0.08059378365628841</v>
+      </c>
+      <c r="J12">
+        <v>0.3621967898194339</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -877,25 +883,28 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.7878040141027678</v>
+        <v>0.5748280141027678</v>
       </c>
       <c r="C13">
-        <v>0.09027759876430858</v>
+        <v>0.5909375987643086</v>
       </c>
       <c r="D13">
-        <v>0.2583545163855133</v>
+        <v>-0.03140248361448672</v>
       </c>
       <c r="E13">
-        <v>0.1218370348802827</v>
+        <v>0.3797290348802828</v>
       </c>
       <c r="F13">
-        <v>0.489756542847739</v>
+        <v>0.107375542847739</v>
       </c>
       <c r="G13">
-        <v>0.04437841445902233</v>
+        <v>0.4556555084590223</v>
       </c>
       <c r="H13">
-        <v>0.3517040686291025</v>
+        <v>0.06474797462910251</v>
+      </c>
+      <c r="I13">
+        <v>0.3538625613519331</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -903,22 +912,25 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.4013017852456914</v>
+        <v>0.9019617852456914</v>
       </c>
       <c r="C14">
-        <v>0.3754432907967085</v>
+        <v>0.08568629079670848</v>
       </c>
       <c r="D14">
-        <v>-0.04062710656928412</v>
+        <v>0.2172648934307159</v>
       </c>
       <c r="E14">
-        <v>0.5187154933129405</v>
+        <v>0.1363344933129406</v>
       </c>
       <c r="F14">
-        <v>0.08012128691392592</v>
+        <v>0.4913983809139259</v>
       </c>
       <c r="G14">
-        <v>0.3203764222454754</v>
+        <v>0.03342032824547542</v>
+      </c>
+      <c r="H14">
+        <v>0.3506375116504074</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,19 +938,22 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.6222684682008229</v>
+        <v>0.3325114682008229</v>
       </c>
       <c r="C15">
-        <v>-0.02297123903139461</v>
+        <v>0.2349207609686054</v>
       </c>
       <c r="D15">
-        <v>0.4240932542019461</v>
+        <v>0.0417122542019461</v>
       </c>
       <c r="E15">
-        <v>0.112338675162406</v>
+        <v>0.5236157691624059</v>
       </c>
       <c r="F15">
-        <v>0.3327645480731927</v>
+        <v>0.0458084540731927</v>
+      </c>
+      <c r="G15">
+        <v>0.3297737081011285</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -946,54 +961,69 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.2167051203848173</v>
+        <v>0.4745971203848173</v>
       </c>
       <c r="C16">
-        <v>0.5091174976711597</v>
+        <v>0.1267364976711596</v>
       </c>
       <c r="D16">
-        <v>-0.004145903195608092</v>
+        <v>0.4071311908043919</v>
       </c>
       <c r="E16">
-        <v>0.3478698197250452</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06091372572504519</v>
+      </c>
+      <c r="F16">
+        <v>0.3530127437271186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.6739775747052469</v>
+        <v>0.2915965747052469</v>
       </c>
       <c r="C17">
-        <v>0.009391369052308113</v>
+        <v>0.4206684630523081</v>
       </c>
       <c r="D17">
-        <v>0.2848969007350822</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.002059193264917797</v>
+      </c>
+      <c r="E17">
+        <v>0.3630509094086165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0.2632404109177161</v>
+        <v>0.6745175049177161</v>
       </c>
       <c r="C18">
-        <v>0.3842149509171186</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.09725885691711864</v>
+      </c>
+      <c r="D18">
+        <v>0.2514743671933744</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.4282746421565676</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1413185481565676</v>
+      </c>
+      <c r="C19">
+        <v>0.2728948720679752</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="B20">
+        <v>0.5091380033804217</v>
       </c>
     </row>
   </sheetData>
